--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H2">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I2">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J2">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>2.442884</v>
+        <v>0.939418</v>
       </c>
       <c r="N2">
-        <v>4.885768000000001</v>
+        <v>1.878836</v>
       </c>
       <c r="O2">
-        <v>0.1282605310873426</v>
+        <v>0.1769507676039001</v>
       </c>
       <c r="P2">
-        <v>0.09027715775239338</v>
+        <v>0.1423284374086933</v>
       </c>
       <c r="Q2">
-        <v>354.2231195114481</v>
+        <v>251.960111067685</v>
       </c>
       <c r="R2">
-        <v>1416.892478045792</v>
+        <v>1007.84044427074</v>
       </c>
       <c r="S2">
-        <v>0.0304756779479625</v>
+        <v>0.07801677366651792</v>
       </c>
       <c r="T2">
-        <v>0.01581901293098713</v>
+        <v>0.05045212235489287</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H3">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I3">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J3">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>1.769787666666667</v>
       </c>
       <c r="N3">
-        <v>5.309363</v>
+        <v>5.309362999999999</v>
       </c>
       <c r="O3">
-        <v>0.09292046042239237</v>
+        <v>0.3333609597778432</v>
       </c>
       <c r="P3">
-        <v>0.09810416727026755</v>
+        <v>0.4022029274644153</v>
       </c>
       <c r="Q3">
-        <v>256.6227901773287</v>
+        <v>474.6725068707991</v>
       </c>
       <c r="R3">
-        <v>1539.736741063972</v>
+        <v>2848.035041224794</v>
       </c>
       <c r="S3">
-        <v>0.02207860830297686</v>
+        <v>0.146977302785478</v>
       </c>
       <c r="T3">
-        <v>0.01719051783717618</v>
+        <v>0.1425715877822977</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H4">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I4">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J4">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>4.649226000000001</v>
+        <v>0.285904</v>
       </c>
       <c r="N4">
-        <v>13.947678</v>
+        <v>0.857712</v>
       </c>
       <c r="O4">
-        <v>0.2441017239889744</v>
+        <v>0.05385348403056514</v>
       </c>
       <c r="P4">
-        <v>0.2577193037175704</v>
+        <v>0.06497470173377835</v>
       </c>
       <c r="Q4">
-        <v>674.1471707349722</v>
+        <v>76.68194945668</v>
       </c>
       <c r="R4">
-        <v>4044.883024409833</v>
+        <v>460.09169674008</v>
       </c>
       <c r="S4">
-        <v>0.05800042666098509</v>
+        <v>0.02374375161893016</v>
       </c>
       <c r="T4">
-        <v>0.04515943013242641</v>
+        <v>0.02303202129896376</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H5">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I5">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J5">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5762615</v>
+        <v>1.786644</v>
       </c>
       <c r="N5">
-        <v>1.152523</v>
+        <v>3.573288</v>
       </c>
       <c r="O5">
-        <v>0.03025588035911189</v>
+        <v>0.3365360544878876</v>
       </c>
       <c r="P5">
-        <v>0.0212958332618867</v>
+        <v>0.2706891380893462</v>
       </c>
       <c r="Q5">
-        <v>83.55908270075301</v>
+        <v>479.1935226687299</v>
       </c>
       <c r="R5">
-        <v>334.236330803012</v>
+        <v>1916.77409067492</v>
       </c>
       <c r="S5">
-        <v>0.007189027349562971</v>
+        <v>0.148377187333692</v>
       </c>
       <c r="T5">
-        <v>0.003731609081777947</v>
+        <v>0.09595300674740659</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H6">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I6">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J6">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.061385</v>
+        <v>0.1192573333333333</v>
       </c>
       <c r="N6">
-        <v>3.184155000000001</v>
+        <v>0.357772</v>
       </c>
       <c r="O6">
-        <v>0.05572667543286508</v>
+        <v>0.02246356432996548</v>
       </c>
       <c r="P6">
-        <v>0.05883547136152845</v>
+        <v>0.02710248776826877</v>
       </c>
       <c r="Q6">
-        <v>153.9029711204701</v>
+        <v>31.98585821466333</v>
       </c>
       <c r="R6">
-        <v>923.4178267228202</v>
+        <v>191.91514928798</v>
       </c>
       <c r="S6">
-        <v>0.01324108203205645</v>
+        <v>0.00990408144482983</v>
       </c>
       <c r="T6">
-        <v>0.01030957448639954</v>
+        <v>0.009607201862831417</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H7">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I7">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J7">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.546720333333333</v>
+        <v>0.407912</v>
       </c>
       <c r="N7">
-        <v>25.640161</v>
+        <v>1.223736</v>
       </c>
       <c r="O7">
-        <v>0.4487347287093137</v>
+        <v>0.07683516976983844</v>
       </c>
       <c r="P7">
-        <v>0.4737680666363536</v>
+        <v>0.09270230753549791</v>
       </c>
       <c r="Q7">
-        <v>1239.291729801847</v>
+        <v>109.40556049154</v>
       </c>
       <c r="R7">
-        <v>7435.750378811084</v>
+        <v>656.4333629492399</v>
       </c>
       <c r="S7">
-        <v>0.1066227853594233</v>
+        <v>0.03387627039279283</v>
       </c>
       <c r="T7">
-        <v>0.08301704837634366</v>
+        <v>0.03286081297254639</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I8">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J8">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>2.442884</v>
+        <v>0.939418</v>
       </c>
       <c r="N8">
-        <v>4.885768000000001</v>
+        <v>1.878836</v>
       </c>
       <c r="O8">
-        <v>0.1282605310873426</v>
+        <v>0.1769507676039001</v>
       </c>
       <c r="P8">
-        <v>0.09027715775239338</v>
+        <v>0.1423284374086933</v>
       </c>
       <c r="Q8">
-        <v>723.0307426368122</v>
+        <v>278.043531410574</v>
       </c>
       <c r="R8">
-        <v>4338.184455820873</v>
+        <v>1668.261188463444</v>
       </c>
       <c r="S8">
-        <v>0.06220613744655226</v>
+        <v>0.08609322788269014</v>
       </c>
       <c r="T8">
-        <v>0.04843401815378955</v>
+        <v>0.08351254216750452</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I9">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J9">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>1.769787666666667</v>
       </c>
       <c r="N9">
-        <v>5.309363</v>
+        <v>5.309362999999999</v>
       </c>
       <c r="O9">
-        <v>0.09292046042239237</v>
+        <v>0.3333609597778432</v>
       </c>
       <c r="P9">
-        <v>0.09810416727026755</v>
+        <v>0.4022029274644153</v>
       </c>
       <c r="Q9">
-        <v>523.8115649124031</v>
+        <v>523.811564912403</v>
       </c>
       <c r="R9">
-        <v>4714.304084211628</v>
+        <v>4714.304084211627</v>
       </c>
       <c r="S9">
-        <v>0.04506626382745954</v>
+        <v>0.1621926904639977</v>
       </c>
       <c r="T9">
-        <v>0.05263323676585923</v>
+        <v>0.2359963303982297</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I10">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J10">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>4.649226000000001</v>
+        <v>0.285904</v>
       </c>
       <c r="N10">
-        <v>13.947678</v>
+        <v>0.857712</v>
       </c>
       <c r="O10">
-        <v>0.2441017239889744</v>
+        <v>0.05385348403056514</v>
       </c>
       <c r="P10">
-        <v>0.2577193037175704</v>
+        <v>0.06497470173377835</v>
       </c>
       <c r="Q10">
-        <v>1376.051145885918</v>
+        <v>84.62021997067201</v>
       </c>
       <c r="R10">
-        <v>12384.46031297327</v>
+        <v>761.5819797360481</v>
       </c>
       <c r="S10">
-        <v>0.1183889171880795</v>
+        <v>0.02620175281352139</v>
       </c>
       <c r="T10">
-        <v>0.1382673285868693</v>
+        <v>0.03812451409679964</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I11">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J11">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.5762615</v>
+        <v>1.786644</v>
       </c>
       <c r="N11">
-        <v>1.152523</v>
+        <v>3.573288</v>
       </c>
       <c r="O11">
-        <v>0.03025588035911189</v>
+        <v>0.3365360544878876</v>
       </c>
       <c r="P11">
-        <v>0.0212958332618867</v>
+        <v>0.2706891380893462</v>
       </c>
       <c r="Q11">
-        <v>170.5585612325445</v>
+        <v>528.800605410492</v>
       </c>
       <c r="R11">
-        <v>1023.351367395267</v>
+        <v>3172.803632462952</v>
       </c>
       <c r="S11">
-        <v>0.01467405004664829</v>
+        <v>0.1637374938922194</v>
       </c>
       <c r="T11">
-        <v>0.01142529074337136</v>
+        <v>0.158829384138178</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I12">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J12">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.061385</v>
+        <v>0.1192573333333333</v>
       </c>
       <c r="N12">
-        <v>3.184155000000001</v>
+        <v>0.357772</v>
       </c>
       <c r="O12">
-        <v>0.05572667543286508</v>
+        <v>0.02246356432996548</v>
       </c>
       <c r="P12">
-        <v>0.05883547136152845</v>
+        <v>0.02710248776826877</v>
       </c>
       <c r="Q12">
-        <v>314.1426219065551</v>
+        <v>35.29709895553201</v>
       </c>
       <c r="R12">
-        <v>2827.283597158996</v>
+        <v>317.673890599788</v>
       </c>
       <c r="S12">
-        <v>0.02702734194243725</v>
+        <v>0.01092937198919821</v>
       </c>
       <c r="T12">
-        <v>0.03156544090396429</v>
+        <v>0.01590263824854986</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I13">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J13">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.546720333333333</v>
+        <v>0.407912</v>
       </c>
       <c r="N13">
-        <v>25.640161</v>
+        <v>1.223736</v>
       </c>
       <c r="O13">
-        <v>0.4487347287093137</v>
+        <v>0.07683516976983844</v>
       </c>
       <c r="P13">
-        <v>0.4737680666363536</v>
+        <v>0.09270230753549791</v>
       </c>
       <c r="Q13">
-        <v>2529.609080791041</v>
+        <v>120.731445410616</v>
       </c>
       <c r="R13">
-        <v>22766.48172711937</v>
+        <v>1086.583008695544</v>
       </c>
       <c r="S13">
-        <v>0.2176355732701905</v>
+        <v>0.03738321042611904</v>
       </c>
       <c r="T13">
-        <v>0.2541782629343199</v>
+        <v>0.05439394619961153</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H14">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I14">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J14">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>2.442884</v>
+        <v>0.939418</v>
       </c>
       <c r="N14">
-        <v>4.885768000000001</v>
+        <v>1.878836</v>
       </c>
       <c r="O14">
-        <v>0.1282605310873426</v>
+        <v>0.1769507676039001</v>
       </c>
       <c r="P14">
-        <v>0.09027715775239338</v>
+        <v>0.1423284374086933</v>
       </c>
       <c r="Q14">
-        <v>0.4416522555386667</v>
+        <v>0.01605026966933333</v>
       </c>
       <c r="R14">
-        <v>2.649913533232001</v>
+        <v>0.096301618016</v>
       </c>
       <c r="S14">
-        <v>3.799766633909012E-05</v>
+        <v>4.969795618730202E-06</v>
       </c>
       <c r="T14">
-        <v>2.95851781964503E-05</v>
+        <v>4.820823616215383E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H15">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I15">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J15">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>1.769787666666667</v>
       </c>
       <c r="N15">
-        <v>5.309363</v>
+        <v>5.309362999999999</v>
       </c>
       <c r="O15">
-        <v>0.09292046042239237</v>
+        <v>0.3333609597778432</v>
       </c>
       <c r="P15">
-        <v>0.09810416727026755</v>
+        <v>0.4022029274644153</v>
       </c>
       <c r="Q15">
-        <v>0.3199622719735556</v>
+        <v>0.03023741221422222</v>
       </c>
       <c r="R15">
-        <v>2.879660447762</v>
+        <v>0.272136709928</v>
       </c>
       <c r="S15">
-        <v>2.752803704516335E-05</v>
+        <v>9.362693701720371E-06</v>
       </c>
       <c r="T15">
-        <v>3.215020657236282E-05</v>
+        <v>1.362306371469365E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H16">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I16">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J16">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>4.649226000000001</v>
+        <v>0.285904</v>
       </c>
       <c r="N16">
-        <v>13.947678</v>
+        <v>0.857712</v>
       </c>
       <c r="O16">
-        <v>0.2441017239889744</v>
+        <v>0.05385348403056514</v>
       </c>
       <c r="P16">
-        <v>0.2577193037175704</v>
+        <v>0.06497470173377835</v>
       </c>
       <c r="Q16">
-        <v>0.8405397675080001</v>
+        <v>0.004884765141333333</v>
       </c>
       <c r="R16">
-        <v>7.564857907572001</v>
+        <v>0.04396288627200001</v>
       </c>
       <c r="S16">
-        <v>7.231605687499797E-05</v>
+        <v>1.512515670955251E-06</v>
       </c>
       <c r="T16">
-        <v>8.445848002948759E-05</v>
+        <v>2.200765934605963E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H17">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I17">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J17">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5762615</v>
+        <v>1.786644</v>
       </c>
       <c r="N17">
-        <v>1.152523</v>
+        <v>3.573288</v>
       </c>
       <c r="O17">
-        <v>0.03025588035911189</v>
+        <v>0.3365360544878876</v>
       </c>
       <c r="P17">
-        <v>0.0212958332618867</v>
+        <v>0.2706891380893462</v>
       </c>
       <c r="Q17">
-        <v>0.1041830849336667</v>
+        <v>0.030525408288</v>
       </c>
       <c r="R17">
-        <v>0.625098509602</v>
+        <v>0.183152449728</v>
       </c>
       <c r="S17">
-        <v>8.963418730100803E-06</v>
+        <v>9.451868628694151E-06</v>
       </c>
       <c r="T17">
-        <v>6.978963866173646E-06</v>
+        <v>9.168544342315685E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.01708533333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.051256</v>
+      </c>
+      <c r="I18">
+        <v>2.808575337663958E-05</v>
+      </c>
+      <c r="J18">
+        <v>3.387112023419805E-05</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G18">
-        <v>0.1807913333333333</v>
-      </c>
-      <c r="H18">
-        <v>0.542374</v>
-      </c>
-      <c r="I18">
-        <v>0.0002962537736040912</v>
-      </c>
-      <c r="J18">
-        <v>0.0003277149938370313</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
       <c r="M18">
-        <v>1.061385</v>
+        <v>0.1192573333333333</v>
       </c>
       <c r="N18">
-        <v>3.184155000000001</v>
+        <v>0.357772</v>
       </c>
       <c r="O18">
-        <v>0.05572667543286508</v>
+        <v>0.02246356432996548</v>
       </c>
       <c r="P18">
-        <v>0.05883547136152845</v>
+        <v>0.02710248776826877</v>
       </c>
       <c r="Q18">
-        <v>0.19188920933</v>
+        <v>0.002037551292444444</v>
       </c>
       <c r="R18">
-        <v>1.72700288397</v>
+        <v>0.018337961632</v>
       </c>
       <c r="S18">
-        <v>1.650923788739669E-05</v>
+        <v>6.309061277316884E-07</v>
       </c>
       <c r="T18">
-        <v>1.928126613464213E-05</v>
+        <v>9.179916218449135E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H19">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I19">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J19">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.546720333333333</v>
+        <v>0.407912</v>
       </c>
       <c r="N19">
-        <v>25.640161</v>
+        <v>1.223736</v>
       </c>
       <c r="O19">
-        <v>0.4487347287093137</v>
+        <v>0.07683516976983844</v>
       </c>
       <c r="P19">
-        <v>0.4737680666363536</v>
+        <v>0.09270230753549791</v>
       </c>
       <c r="Q19">
-        <v>1.545172964690444</v>
+        <v>0.006969312490666667</v>
       </c>
       <c r="R19">
-        <v>13.906556682214</v>
+        <v>0.062723812416</v>
       </c>
       <c r="S19">
-        <v>0.0001329393567273423</v>
+        <v>2.157973628807915E-06</v>
       </c>
       <c r="T19">
-        <v>0.0001552608990379149</v>
+        <v>3.139931004522453E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H20">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I20">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J20">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>2.442884</v>
+        <v>0.939418</v>
       </c>
       <c r="N20">
-        <v>4.885768000000001</v>
+        <v>1.878836</v>
       </c>
       <c r="O20">
-        <v>0.1282605310873426</v>
+        <v>0.1769507676039001</v>
       </c>
       <c r="P20">
-        <v>0.09027715775239338</v>
+        <v>0.1423284374086933</v>
       </c>
       <c r="Q20">
-        <v>75.132416893848</v>
+        <v>40.8721044022</v>
       </c>
       <c r="R20">
-        <v>300.529667575392</v>
+        <v>163.4884176088</v>
       </c>
       <c r="S20">
-        <v>0.006464036971575956</v>
+        <v>0.01265561324333649</v>
       </c>
       <c r="T20">
-        <v>0.003355288260177173</v>
+        <v>0.008184170119086049</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H21">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I21">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J21">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>1.769787666666667</v>
       </c>
       <c r="N21">
-        <v>5.309363</v>
+        <v>5.309362999999999</v>
       </c>
       <c r="O21">
-        <v>0.09292046042239237</v>
+        <v>0.3333609597778432</v>
       </c>
       <c r="P21">
-        <v>0.09810416727026755</v>
+        <v>0.4022029274644153</v>
       </c>
       <c r="Q21">
-        <v>54.430920496262</v>
+        <v>76.99974482256665</v>
       </c>
       <c r="R21">
-        <v>326.585522977572</v>
+        <v>461.9984689354</v>
       </c>
       <c r="S21">
-        <v>0.004682978360483951</v>
+        <v>0.02384215358036599</v>
       </c>
       <c r="T21">
-        <v>0.003646191006801604</v>
+        <v>0.02312747361450444</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H22">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I22">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J22">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>4.649226000000001</v>
+        <v>0.285904</v>
       </c>
       <c r="N22">
-        <v>13.947678</v>
+        <v>0.857712</v>
       </c>
       <c r="O22">
-        <v>0.2441017239889744</v>
+        <v>0.05385348403056514</v>
       </c>
       <c r="P22">
-        <v>0.2577193037175704</v>
+        <v>0.06497470173377835</v>
       </c>
       <c r="Q22">
-        <v>142.989837448572</v>
+        <v>12.4390826416</v>
       </c>
       <c r="R22">
-        <v>857.9390246914321</v>
+        <v>74.6344958496</v>
       </c>
       <c r="S22">
-        <v>0.01230216774648825</v>
+        <v>0.003851629890765214</v>
       </c>
       <c r="T22">
-        <v>0.009578531000680228</v>
+        <v>0.003736175441167581</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H23">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I23">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J23">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.5762615</v>
+        <v>1.786644</v>
       </c>
       <c r="N23">
-        <v>1.152523</v>
+        <v>3.573288</v>
       </c>
       <c r="O23">
-        <v>0.03025588035911189</v>
+        <v>0.3365360544878876</v>
       </c>
       <c r="P23">
-        <v>0.0212958332618867</v>
+        <v>0.2706891380893462</v>
       </c>
       <c r="Q23">
-        <v>17.723280867153</v>
+        <v>77.7331284876</v>
       </c>
       <c r="R23">
-        <v>70.89312346861199</v>
+        <v>310.9325139504</v>
       </c>
       <c r="S23">
-        <v>0.001524827065589613</v>
+        <v>0.02406923804688401</v>
       </c>
       <c r="T23">
-        <v>0.0007914921239576205</v>
+        <v>0.01556516741029486</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H24">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I24">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J24">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>1.061385</v>
+        <v>0.1192573333333333</v>
       </c>
       <c r="N24">
-        <v>3.184155000000001</v>
+        <v>0.357772</v>
       </c>
       <c r="O24">
-        <v>0.05572667543286508</v>
+        <v>0.02246356432996548</v>
       </c>
       <c r="P24">
-        <v>0.05883547136152845</v>
+        <v>0.02710248776826877</v>
       </c>
       <c r="Q24">
-        <v>32.64355585647001</v>
+        <v>5.188636132933333</v>
       </c>
       <c r="R24">
-        <v>195.86133513882</v>
+        <v>31.1318167976</v>
       </c>
       <c r="S24">
-        <v>0.002808496793575195</v>
+        <v>0.001606606097709782</v>
       </c>
       <c r="T24">
-        <v>0.002186710030047364</v>
+        <v>0.00155844731091253</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H25">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I25">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J25">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.546720333333333</v>
+        <v>0.407912</v>
       </c>
       <c r="N25">
-        <v>25.640161</v>
+        <v>1.223736</v>
       </c>
       <c r="O25">
-        <v>0.4487347287093137</v>
+        <v>0.07683516976983844</v>
       </c>
       <c r="P25">
-        <v>0.4737680666363536</v>
+        <v>0.09270230753549791</v>
       </c>
       <c r="Q25">
-        <v>262.859699911714</v>
+        <v>17.7473945048</v>
       </c>
       <c r="R25">
-        <v>1577.158199470284</v>
+        <v>106.4843670288</v>
       </c>
       <c r="S25">
-        <v>0.0226152024493945</v>
+        <v>0.005495292307913915</v>
       </c>
       <c r="T25">
-        <v>0.01760831279593149</v>
+        <v>0.005330568290606463</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H26">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I26">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J26">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>2.442884</v>
+        <v>0.939418</v>
       </c>
       <c r="N26">
-        <v>4.885768000000001</v>
+        <v>1.878836</v>
       </c>
       <c r="O26">
-        <v>0.1282605310873426</v>
+        <v>0.1769507676039001</v>
       </c>
       <c r="P26">
-        <v>0.09027715775239338</v>
+        <v>0.1423284374086933</v>
       </c>
       <c r="Q26">
-        <v>336.1576462562147</v>
+        <v>0.541504960068</v>
       </c>
       <c r="R26">
-        <v>2016.945877537288</v>
+        <v>3.249029760408</v>
       </c>
       <c r="S26">
-        <v>0.02892141027152353</v>
+        <v>0.0001676712624466702</v>
       </c>
       <c r="T26">
-        <v>0.02251835859970765</v>
+        <v>0.0001626452360972706</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H27">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I27">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J27">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>1.769787666666667</v>
       </c>
       <c r="N27">
-        <v>5.309363</v>
+        <v>5.309362999999999</v>
       </c>
       <c r="O27">
-        <v>0.09292046042239237</v>
+        <v>0.3333609597778432</v>
       </c>
       <c r="P27">
-        <v>0.09810416727026755</v>
+        <v>0.4022029274644153</v>
       </c>
       <c r="Q27">
-        <v>243.5349596624092</v>
+        <v>1.020151625546</v>
       </c>
       <c r="R27">
-        <v>2191.814636961683</v>
+        <v>9.181364629913999</v>
       </c>
       <c r="S27">
-        <v>0.02095259341055448</v>
+        <v>0.0003158791212565084</v>
       </c>
       <c r="T27">
-        <v>0.02447069528680437</v>
+        <v>0.0004596157400971203</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H28">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I28">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J28">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>4.649226000000001</v>
+        <v>0.285904</v>
       </c>
       <c r="N28">
-        <v>13.947678</v>
+        <v>0.857712</v>
       </c>
       <c r="O28">
-        <v>0.2441017239889744</v>
+        <v>0.05385348403056514</v>
       </c>
       <c r="P28">
-        <v>0.2577193037175704</v>
+        <v>0.06497470173377835</v>
       </c>
       <c r="Q28">
-        <v>639.765485824622</v>
+        <v>0.164802499104</v>
       </c>
       <c r="R28">
-        <v>5757.889372421598</v>
+        <v>1.483222491936</v>
       </c>
       <c r="S28">
-        <v>0.05504238948350975</v>
+        <v>5.10293443584781E-05</v>
       </c>
       <c r="T28">
-        <v>0.06428443078698234</v>
+        <v>7.424957300342458E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H29">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I29">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J29">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.5762615</v>
+        <v>1.786644</v>
       </c>
       <c r="N29">
-        <v>1.152523</v>
+        <v>3.573288</v>
       </c>
       <c r="O29">
-        <v>0.03025588035911189</v>
+        <v>0.3365360544878876</v>
       </c>
       <c r="P29">
-        <v>0.0212958332618867</v>
+        <v>0.2706891380893462</v>
       </c>
       <c r="Q29">
-        <v>79.29754727120715</v>
+        <v>1.029868054344</v>
       </c>
       <c r="R29">
-        <v>475.785283627243</v>
+        <v>6.179208326063999</v>
       </c>
       <c r="S29">
-        <v>0.006822385043736646</v>
+        <v>0.0003188877102873998</v>
       </c>
       <c r="T29">
-        <v>0.005311944039997571</v>
+        <v>0.0003093288985326788</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H30">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I30">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J30">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>1.061385</v>
+        <v>0.1192573333333333</v>
       </c>
       <c r="N30">
-        <v>3.184155000000001</v>
+        <v>0.357772</v>
       </c>
       <c r="O30">
-        <v>0.05572667543286508</v>
+        <v>0.02246356432996548</v>
       </c>
       <c r="P30">
-        <v>0.05883547136152845</v>
+        <v>0.02710248776826877</v>
       </c>
       <c r="Q30">
-        <v>146.053878682595</v>
+        <v>0.06874302762399999</v>
       </c>
       <c r="R30">
-        <v>1314.484908143355</v>
+        <v>0.6186872486159999</v>
       </c>
       <c r="S30">
-        <v>0.01256578332865621</v>
+        <v>2.128554875042139E-05</v>
       </c>
       <c r="T30">
-        <v>0.01467567517062867</v>
+        <v>3.097125635712362E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H31">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I31">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J31">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.546720333333333</v>
+        <v>0.407912</v>
       </c>
       <c r="N31">
-        <v>25.640161</v>
+        <v>1.223736</v>
       </c>
       <c r="O31">
-        <v>0.4487347287093137</v>
+        <v>0.07683516976983844</v>
       </c>
       <c r="P31">
-        <v>0.4737680666363536</v>
+        <v>0.09270230753549791</v>
       </c>
       <c r="Q31">
-        <v>1176.087522151467</v>
+        <v>0.235131082512</v>
       </c>
       <c r="R31">
-        <v>10584.7876993632</v>
+        <v>2.116179742608</v>
       </c>
       <c r="S31">
-        <v>0.1011849949634553</v>
+        <v>7.280584362567688E-05</v>
       </c>
       <c r="T31">
-        <v>0.1181747352621407</v>
+        <v>0.000105935180420606</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H32">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I32">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J32">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M32">
-        <v>2.442884</v>
+        <v>0.939418</v>
       </c>
       <c r="N32">
-        <v>4.885768000000001</v>
+        <v>1.878836</v>
       </c>
       <c r="O32">
-        <v>0.1282605310873426</v>
+        <v>0.1769507676039001</v>
       </c>
       <c r="P32">
-        <v>0.09027715775239338</v>
+        <v>0.1423284374086933</v>
       </c>
       <c r="Q32">
-        <v>1.804734298448</v>
+        <v>0.04040749957333332</v>
       </c>
       <c r="R32">
-        <v>10.828405790688</v>
+        <v>0.24244499744</v>
       </c>
       <c r="S32">
-        <v>0.0001552707833892975</v>
+        <v>1.251175329016984E-05</v>
       </c>
       <c r="T32">
-        <v>0.0001208946295354201</v>
+        <v>1.213670749641862E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H33">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I33">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J33">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>1.769787666666667</v>
       </c>
       <c r="N33">
-        <v>5.309363</v>
+        <v>5.309362999999999</v>
       </c>
       <c r="O33">
-        <v>0.09292046042239237</v>
+        <v>0.3333609597778432</v>
       </c>
       <c r="P33">
-        <v>0.09810416727026755</v>
+        <v>0.4022029274644153</v>
       </c>
       <c r="Q33">
-        <v>1.307469574078667</v>
+        <v>0.07612446683555554</v>
       </c>
       <c r="R33">
-        <v>11.767226166708</v>
+        <v>0.6851202015199999</v>
       </c>
       <c r="S33">
-        <v>0.0001124884838723616</v>
+        <v>2.357113304335095E-05</v>
       </c>
       <c r="T33">
-        <v>0.0001313761670537911</v>
+        <v>3.429686557171976E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H34">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I34">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J34">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2545,28 +2545,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>4.649226000000001</v>
+        <v>0.285904</v>
       </c>
       <c r="N34">
-        <v>13.947678</v>
+        <v>0.857712</v>
       </c>
       <c r="O34">
-        <v>0.2441017239889744</v>
+        <v>0.05385348403056514</v>
       </c>
       <c r="P34">
-        <v>0.2577193037175704</v>
+        <v>0.06497470173377835</v>
       </c>
       <c r="Q34">
-        <v>3.434717990472</v>
+        <v>0.01229768405333333</v>
       </c>
       <c r="R34">
-        <v>30.912461914248</v>
+        <v>0.11067915648</v>
       </c>
       <c r="S34">
-        <v>0.0002955068530367754</v>
+        <v>3.807847318949304E-06</v>
       </c>
       <c r="T34">
-        <v>0.0003451247305826493</v>
+        <v>5.54055790934824E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H35">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I35">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J35">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>0.5762615</v>
+        <v>1.786644</v>
       </c>
       <c r="N35">
-        <v>1.152523</v>
+        <v>3.573288</v>
       </c>
       <c r="O35">
-        <v>0.03025588035911189</v>
+        <v>0.3365360544878876</v>
       </c>
       <c r="P35">
-        <v>0.0212958332618867</v>
+        <v>0.2706891380893462</v>
       </c>
       <c r="Q35">
-        <v>0.425725860878</v>
+        <v>0.07684951391999999</v>
       </c>
       <c r="R35">
-        <v>2.554355165268</v>
+        <v>0.46109708352</v>
       </c>
       <c r="S35">
-        <v>3.662743484426261E-05</v>
+        <v>2.379563617618802E-05</v>
       </c>
       <c r="T35">
-        <v>2.851830891602937E-05</v>
+        <v>2.308235059178273E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H36">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I36">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J36">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>1.061385</v>
+        <v>0.1192573333333333</v>
       </c>
       <c r="N36">
-        <v>3.184155000000001</v>
+        <v>0.357772</v>
       </c>
       <c r="O36">
-        <v>0.05572667543286508</v>
+        <v>0.02246356432996548</v>
       </c>
       <c r="P36">
-        <v>0.05883547136152845</v>
+        <v>0.02710248776826877</v>
       </c>
       <c r="Q36">
-        <v>0.7841215192200002</v>
+        <v>0.00512965543111111</v>
       </c>
       <c r="R36">
-        <v>7.057093672980001</v>
+        <v>0.04616689887999999</v>
       </c>
       <c r="S36">
-        <v>6.74620982525775E-05</v>
+        <v>1.588343349510244E-06</v>
       </c>
       <c r="T36">
-        <v>7.878950435394304E-05</v>
+        <v>2.311097995997886E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H37">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I37">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J37">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.546720333333333</v>
+        <v>0.407912</v>
       </c>
       <c r="N37">
-        <v>25.640161</v>
+        <v>1.223736</v>
       </c>
       <c r="O37">
-        <v>0.4487347287093137</v>
+        <v>0.07683516976983844</v>
       </c>
       <c r="P37">
-        <v>0.4737680666363536</v>
+        <v>0.09270230753549791</v>
       </c>
       <c r="Q37">
-        <v>6.314077674097333</v>
+        <v>0.01754565482666666</v>
       </c>
       <c r="R37">
-        <v>56.826699066876</v>
+        <v>0.15791089344</v>
       </c>
       <c r="S37">
-        <v>0.00054323331012275</v>
+        <v>5.432825758181937E-06</v>
       </c>
       <c r="T37">
-        <v>0.0006344463685798273</v>
+        <v>7.904961308404426E-06</v>
       </c>
     </row>
   </sheetData>
